--- a/численные методы/pr1/график.xlsx
+++ b/численные методы/pr1/график.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Учеба\кит\численные методы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Учеба\кит\численные методы\pr1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB3889C-4321-42A8-B40C-42478CC066F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9268510D-F7DA-49DB-AD6D-AF3C10989D08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7590" yWindow="3885" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>x</t>
   </si>
@@ -44,12 +44,18 @@
   <si>
     <t>e = 0,001</t>
   </si>
+  <si>
+    <t xml:space="preserve">Ответ: </t>
+  </si>
+  <si>
+    <t>&lt; x &lt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,8 +71,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -78,8 +93,13 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -92,28 +112,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -184,28 +182,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Вывод" xfId="2" builtinId="21"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
@@ -236,37 +296,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -305,37 +335,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.9</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.8</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.7</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.6</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.5</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.4</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.3</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.2</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.1000000000000001</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -347,37 +377,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.488</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80699999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18399999999999972</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.86399999999999988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.2770000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.6080000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.851</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.0589999999999993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.23200000000000065</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.48700000000000054</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1039999999999992</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.625</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0560000000000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.4029999999999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.6719999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.8689999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1438,386 +1468,485 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L14"/>
+  <dimension ref="B2:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="H2" s="11" t="s">
+      <c r="F2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="K2" s="11" t="s">
+      <c r="I2" s="9"/>
+      <c r="K2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="11"/>
+      <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="N3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>-5</v>
       </c>
       <c r="C4" s="2">
-        <f>B4*B4*B4 - 2*B4 + 2</f>
-        <v>-113</v>
-      </c>
-      <c r="E4" s="3">
+        <f>B4 * B4 * B4 + 2 * B4 * B4 - 8 * B4 +3</f>
+        <v>-32</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <f>E4 * E4 * E4 + 2 * E4 * E4 - 8 * E4 +3</f>
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I4" s="2">
+        <f>H4 * H4 * H4 + 2 * H4 * H4 - 8 * H4 +3</f>
+        <v>0.18399999999999972</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="L4" s="2">
+        <f>K4 * K4 * K4 + 2 * K4 * K4 - 8 * K4 +3</f>
+        <v>9.3070000000001762E-3</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="O4" s="2">
+        <f>N4 * N4 * N4 + 2 * N4 * N4 - 8 * N4 +3</f>
+        <v>3.5849909999998708E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>-4</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ref="C5:C14" si="0">B5 * B5 * B5 + 2 * B5 * B5 - 8 * B5 +3</f>
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" ref="F5:F14" si="1">E5 * E5 * E5 + 2 * E5 * E5 - 8 * E5 +3</f>
+        <v>2.2210000000000001</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" ref="I5:I14" si="2">H5 * H5 * H5 + 2 * H5 * H5 - 8 * H5 +3</f>
+        <v>0.12512100000000004</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" ref="L5:L14" si="3">K5 * K5 * K5 + 2 * K5 * K5 - 8 * K5 +3</f>
+        <v>3.5849909999998708E-3</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.43109999999999998</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" ref="O5:O14" si="4">N5 * N5 * N5 + 2 * N5 * N5 - 8 * N5 +3</f>
+        <v>3.0131522309999603E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>1.488</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="2"/>
+        <v>6.6888000000000059E-2</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.432</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="3"/>
+        <v>-2.1304319999999599E-3</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.43120000000000003</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="4"/>
+        <v>2.4413793279998153E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
         <v>-2</v>
       </c>
-      <c r="F4" s="4">
-        <f t="shared" ref="F4:F13" si="0">E4*E4*E4 - 2*E4 + 2</f>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.80699999999999994</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="2"/>
+        <v>9.3070000000001762E-3</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.433</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="3"/>
+        <v>-7.8392630000001517E-3</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.43130000000000002</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8696722969999691E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="1"/>
+        <v>0.18399999999999972</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="2"/>
+        <v>-4.7616000000000103E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.434</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.3541496000000208E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.43140000000000001</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2980311440000669E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.375</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.10387499999999994</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.435</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="3"/>
+        <v>-1.9237125000000077E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.43149999999999999</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="4"/>
+        <v>7.2645587500019815E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="H4" s="3">
-        <v>-1.8</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I14" si="1">H4*H4*H4 - 2*H4 + 2</f>
-        <v>-0.23200000000000065</v>
-      </c>
-      <c r="K4" s="7">
-        <v>-1.77</v>
-      </c>
-      <c r="L4" s="8">
-        <f t="shared" ref="L4:L14" si="2">K4*K4*K4 - 2*K4 + 2</f>
-        <v>-5.2330000000004873E-3</v>
+      <c r="E10" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.86399999999999988</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.15946400000000027</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.436</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.492614400000015E-2</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0.43159999999999998</v>
+      </c>
+      <c r="O10" s="6">
+        <f t="shared" si="4"/>
+        <v>1.5494649600000798E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>-4</v>
-      </c>
-      <c r="C5" s="4">
-        <f>B5*B5*B5 - 2*B5 + 2</f>
-        <v>-54</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-1.9</v>
-      </c>
-      <c r="F5" s="4">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>-1.0589999999999993</v>
-      </c>
-      <c r="H5" s="3">
-        <v>-1.79</v>
-      </c>
-      <c r="I5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F11" s="2">
         <f t="shared" si="1"/>
-        <v>-0.15533899999999967</v>
-      </c>
-      <c r="K5" s="7">
-        <v>-1.7689999999999999</v>
-      </c>
-      <c r="L5" s="8">
+        <v>-1.2770000000000001</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="I11" s="2">
         <f t="shared" si="2"/>
-        <v>2.1603910000007609E-3</v>
+        <v>-0.21437699999999982</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.437</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="3"/>
+        <v>-3.060854699999993E-2</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0.43169999999999997</v>
+      </c>
+      <c r="O11" s="6">
+        <f t="shared" si="4"/>
+        <v>-4.1649698699997018E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="C6" s="4">
-        <f>B6*B6*B6 - 2*B6 + 2</f>
-        <v>-19</v>
-      </c>
-      <c r="E6" s="7">
-        <v>-1.8</v>
-      </c>
-      <c r="F6" s="8">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>-0.23200000000000065</v>
-      </c>
-      <c r="H6" s="3">
-        <v>-1.78</v>
-      </c>
-      <c r="I6" s="4">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>-7.9752000000000489E-2</v>
-      </c>
-      <c r="K6" s="3">
-        <v>-1.768</v>
-      </c>
-      <c r="L6" s="4">
+        <v>-1.6080000000000005</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="I12" s="2">
         <f t="shared" si="2"/>
-        <v>9.5431679999999908E-3</v>
+        <v>-0.26860799999999996</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.438</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="3"/>
+        <v>-3.628432799999981E-2</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.43180000000000002</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="4"/>
+        <v>-9.878745680000911E-4</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.851</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.32215099999999985</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.439</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="3"/>
+        <v>-4.1953481000000181E-2</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.43190000000000001</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="4"/>
+        <v>-1.5591862409998214E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="C7" s="8">
-        <f>B7*B7*B7 - 2*B7 + 2</f>
-        <v>-2</v>
-      </c>
-      <c r="E7" s="7">
-        <v>-1.7</v>
-      </c>
-      <c r="F7" s="8">
-        <f t="shared" si="0"/>
-        <v>0.48700000000000054</v>
-      </c>
-      <c r="H7" s="7">
-        <v>-1.77</v>
-      </c>
-      <c r="I7" s="8">
-        <f t="shared" si="1"/>
-        <v>-5.2330000000004873E-3</v>
-      </c>
-      <c r="K7" s="3">
-        <v>-1.7669999999999999</v>
-      </c>
-      <c r="L7" s="4">
+      <c r="H14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="4">
         <f t="shared" si="2"/>
-        <v>1.6915337000000363E-2</v>
+        <v>-0.375</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="3"/>
+        <v>-4.7616000000000103E-2</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.432</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.1304319999999599E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
-        <v>-1</v>
-      </c>
-      <c r="C8" s="8">
-        <f>B8*B8*B8 - 2*B8 + 2</f>
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>-1.6</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1039999999999992</v>
-      </c>
-      <c r="H8" s="7">
-        <v>-1.76</v>
-      </c>
-      <c r="I8" s="8">
-        <f t="shared" si="1"/>
-        <v>6.8224000000000284E-2</v>
-      </c>
-      <c r="K8" s="3">
-        <v>-1.766</v>
-      </c>
-      <c r="L8" s="4">
-        <f t="shared" si="2"/>
-        <v>2.4276904000000599E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <f>B9*B9*B9 - 2*B9 + 2</f>
-        <v>2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>-1.5</v>
-      </c>
-      <c r="F9" s="4">
-        <f t="shared" si="0"/>
-        <v>1.625</v>
-      </c>
-      <c r="H9" s="3">
-        <v>-1.75</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="1"/>
-        <v>0.140625</v>
-      </c>
-      <c r="K9" s="3">
-        <v>-1.7649999999999999</v>
-      </c>
-      <c r="L9" s="4">
-        <f t="shared" si="2"/>
-        <v>3.1627875000000305E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <f>B10*B10*B10 - 2*B10 + 2</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>-1.4</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" si="0"/>
-        <v>2.0560000000000005</v>
-      </c>
-      <c r="H10" s="3">
-        <v>-1.74</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.2119759999999995</v>
-      </c>
-      <c r="K10" s="3">
-        <v>-1.764</v>
-      </c>
-      <c r="L10" s="4">
-        <f t="shared" si="2"/>
-        <v>3.8968255999999979E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="4">
-        <f>B11*B11*B11 - 2*B11 + 2</f>
+    <row r="17" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="3">
-        <v>-1.3</v>
-      </c>
-      <c r="F11" s="4">
-        <f t="shared" si="0"/>
-        <v>2.4029999999999996</v>
-      </c>
-      <c r="H11" s="3">
-        <v>-1.73</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="1"/>
-        <v>0.28228299999999962</v>
-      </c>
-      <c r="K11" s="3">
-        <v>-1.7629999999999999</v>
-      </c>
-      <c r="L11" s="4">
-        <f t="shared" si="2"/>
-        <v>4.6298053000001005E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4">
-        <f>B12*B12*B12 - 2*B12 + 2</f>
-        <v>23</v>
-      </c>
-      <c r="E12" s="3">
-        <v>-1.2</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" si="0"/>
-        <v>2.6719999999999997</v>
-      </c>
-      <c r="H12" s="3">
-        <v>-1.72</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="1"/>
-        <v>0.35155200000000031</v>
-      </c>
-      <c r="K12" s="3">
-        <v>-1.762</v>
-      </c>
-      <c r="L12" s="4">
-        <f t="shared" si="2"/>
-        <v>5.3617272000000327E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4">
-        <f>B13*B13*B13 - 2*B13 + 2</f>
-        <v>58</v>
-      </c>
-      <c r="E13" s="3">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="0"/>
-        <v>2.8689999999999998</v>
-      </c>
-      <c r="H13" s="3">
-        <v>-1.71</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="1"/>
-        <v>0.41978900000000063</v>
-      </c>
-      <c r="K13" s="3">
-        <v>-1.7609999999999999</v>
-      </c>
-      <c r="L13" s="4">
-        <f t="shared" si="2"/>
-        <v>6.0925919000001105E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="5">
-        <v>5</v>
-      </c>
-      <c r="C14" s="6">
-        <f>B14*B14*B14 - 2*B14 + 2</f>
-        <v>117</v>
-      </c>
-      <c r="E14" s="5">
-        <v>-1</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" ref="F13:F14" si="3">E14*E14*E14 - 2*E14 + 2</f>
-        <v>3</v>
-      </c>
-      <c r="H14" s="5">
-        <v>-1.7</v>
-      </c>
-      <c r="I14" s="6">
-        <f t="shared" si="1"/>
-        <v>0.48700000000000054</v>
-      </c>
-      <c r="K14" s="5">
-        <v>-1.76</v>
-      </c>
-      <c r="L14" s="6">
-        <f t="shared" si="2"/>
-        <v>6.8224000000000284E-2</v>
+      <c r="O17" s="11">
+        <f>N10</f>
+        <v>0.43159999999999998</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="13">
+        <f>N11</f>
+        <v>0.43169999999999997</v>
       </c>
     </row>
   </sheetData>
